--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf13</t>
+  </si>
+  <si>
+    <t>Scn5a</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf13</t>
-  </si>
-  <si>
-    <t>Scn5a</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +531,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1618966666666667</v>
+        <v>0.2647293333333333</v>
       </c>
       <c r="H2">
-        <v>0.48569</v>
+        <v>0.794188</v>
       </c>
       <c r="I2">
-        <v>0.05772118441983191</v>
+        <v>0.1169441137252306</v>
       </c>
       <c r="J2">
-        <v>0.07937737569103211</v>
+        <v>0.1580772484350275</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2809836666666667</v>
+        <v>0.1838603333333333</v>
       </c>
       <c r="N2">
-        <v>0.842951</v>
+        <v>0.551581</v>
       </c>
       <c r="O2">
-        <v>0.07601238054857258</v>
+        <v>0.03197733867200136</v>
       </c>
       <c r="P2">
-        <v>0.1097291692836794</v>
+        <v>0.04709630920765415</v>
       </c>
       <c r="Q2">
-        <v>0.04549031902111111</v>
+        <v>0.04867322346977777</v>
       </c>
       <c r="R2">
-        <v>0.40941287119</v>
+        <v>0.438059011228</v>
       </c>
       <c r="S2">
-        <v>0.004387524635834602</v>
+        <v>0.003739561530288743</v>
       </c>
       <c r="T2">
-        <v>0.008710013494495482</v>
+        <v>0.00744485497099122</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +593,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1618966666666667</v>
+        <v>0.2647293333333333</v>
       </c>
       <c r="H3">
-        <v>0.48569</v>
+        <v>0.794188</v>
       </c>
       <c r="I3">
-        <v>0.05772118441983191</v>
+        <v>0.1169441137252306</v>
       </c>
       <c r="J3">
-        <v>0.07937737569103211</v>
+        <v>0.1580772484350275</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +626,22 @@
         <v>0.024056</v>
       </c>
       <c r="O3">
-        <v>0.002169229085055314</v>
+        <v>0.001394621749287348</v>
       </c>
       <c r="P3">
-        <v>0.003131433376659132</v>
+        <v>0.002054002611219981</v>
       </c>
       <c r="Q3">
-        <v>0.001298195404444445</v>
+        <v>0.002122776280888889</v>
       </c>
       <c r="R3">
-        <v>0.01168375864</v>
+        <v>0.019104986528</v>
       </c>
       <c r="S3">
-        <v>0.000125210472067341</v>
+        <v>0.0001630928044523397</v>
       </c>
       <c r="T3">
-        <v>0.0002485649635905092</v>
+        <v>0.0003246910810600162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,51 +664,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1618966666666667</v>
+        <v>0.2647293333333333</v>
       </c>
       <c r="H4">
-        <v>0.48569</v>
+        <v>0.794188</v>
       </c>
       <c r="I4">
-        <v>0.05772118441983191</v>
+        <v>0.1169441137252306</v>
       </c>
       <c r="J4">
-        <v>0.07937737569103211</v>
+        <v>0.1580772484350275</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.407549</v>
+        <v>0.003383</v>
       </c>
       <c r="N4">
-        <v>6.815098</v>
+        <v>0.010149</v>
       </c>
       <c r="O4">
-        <v>0.9218183903663721</v>
+        <v>0.0005883777907182116</v>
       </c>
       <c r="P4">
-        <v>0.8871393973396614</v>
+        <v>0.000866564370688044</v>
       </c>
       <c r="Q4">
-        <v>0.5516708246033333</v>
+        <v>0.0008955793346666666</v>
       </c>
       <c r="R4">
-        <v>3.31002494762</v>
+        <v>0.008060214012</v>
       </c>
       <c r="S4">
-        <v>0.05320844931192997</v>
+        <v>6.880731927115049E-05</v>
       </c>
       <c r="T4">
-        <v>0.07041879723294611</v>
+        <v>0.0001369841113101972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3472393333333333</v>
+        <v>0.2647293333333333</v>
       </c>
       <c r="H5">
-        <v>1.041718</v>
+        <v>0.794188</v>
       </c>
       <c r="I5">
-        <v>0.123801595238647</v>
+        <v>0.1169441137252306</v>
       </c>
       <c r="J5">
-        <v>0.1702502440859614</v>
+        <v>0.1580772484350275</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2809836666666667</v>
+        <v>5.537354499999999</v>
       </c>
       <c r="N5">
-        <v>0.842951</v>
+        <v>11.074709</v>
       </c>
       <c r="O5">
-        <v>0.07601238054857258</v>
+        <v>0.9630672205538121</v>
       </c>
       <c r="P5">
-        <v>0.1097291692836794</v>
+        <v>0.9456053044771126</v>
       </c>
       <c r="Q5">
-        <v>0.09756858109088888</v>
+        <v>1.465900165215333</v>
       </c>
       <c r="R5">
-        <v>0.8781172298179999</v>
+        <v>8.795400991291999</v>
       </c>
       <c r="S5">
-        <v>0.009410453969800387</v>
+        <v>0.1126250425654868</v>
       </c>
       <c r="T5">
-        <v>0.0186814178538962</v>
+        <v>0.1494786846373084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,25 +779,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3472393333333333</v>
+        <v>0.2647293333333333</v>
       </c>
       <c r="H6">
-        <v>1.041718</v>
+        <v>0.794188</v>
       </c>
       <c r="I6">
-        <v>0.123801595238647</v>
+        <v>0.1169441137252306</v>
       </c>
       <c r="J6">
-        <v>0.1702502440859614</v>
+        <v>0.1580772484350275</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.008018666666666667</v>
+        <v>0.01709066666666667</v>
       </c>
       <c r="N6">
-        <v>0.024056</v>
+        <v>0.051272</v>
       </c>
       <c r="O6">
-        <v>0.002169229085055314</v>
+        <v>0.002972441234181116</v>
       </c>
       <c r="P6">
-        <v>0.003131433376659132</v>
+        <v>0.004377819333325193</v>
       </c>
       <c r="Q6">
-        <v>0.002784396467555555</v>
+        <v>0.004524400792888889</v>
       </c>
       <c r="R6">
-        <v>0.025059568208</v>
+        <v>0.040719607136</v>
       </c>
       <c r="S6">
-        <v>0.0002685540211679185</v>
+        <v>0.0003476095057316413</v>
       </c>
       <c r="T6">
-        <v>0.0005331272967151436</v>
+        <v>0.0006920336343577132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +841,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.7671255</v>
+      </c>
+      <c r="H7">
+        <v>3.534251</v>
+      </c>
+      <c r="I7">
+        <v>0.7806272272009463</v>
+      </c>
+      <c r="J7">
+        <v>0.7034665260098926</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3472393333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.041718</v>
-      </c>
-      <c r="I7">
-        <v>0.123801595238647</v>
-      </c>
-      <c r="J7">
-        <v>0.1702502440859614</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.407549</v>
+        <v>0.1838603333333333</v>
       </c>
       <c r="N7">
-        <v>6.815098</v>
+        <v>0.551581</v>
       </c>
       <c r="O7">
-        <v>0.9218183903663721</v>
+        <v>0.03197733867200136</v>
       </c>
       <c r="P7">
-        <v>0.8871393973396614</v>
+        <v>0.04709630920765415</v>
       </c>
       <c r="Q7">
-        <v>1.183235043060666</v>
+        <v>0.3249042834718333</v>
       </c>
       <c r="R7">
-        <v>7.099410258363999</v>
+        <v>1.949425700831</v>
       </c>
       <c r="S7">
-        <v>0.1141225872476787</v>
+        <v>0.02496238122079001</v>
       </c>
       <c r="T7">
-        <v>0.15103569893535</v>
+        <v>0.03313067702619618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.295669</v>
+        <v>1.7671255</v>
       </c>
       <c r="H8">
-        <v>4.591338</v>
+        <v>3.534251</v>
       </c>
       <c r="I8">
-        <v>0.8184772203415212</v>
+        <v>0.7806272272009463</v>
       </c>
       <c r="J8">
-        <v>0.7503723802230066</v>
+        <v>0.7034665260098926</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2809836666666667</v>
+        <v>0.008018666666666667</v>
       </c>
       <c r="N8">
-        <v>0.842951</v>
+        <v>0.024056</v>
       </c>
       <c r="O8">
-        <v>0.07601238054857258</v>
+        <v>0.001394621749287348</v>
       </c>
       <c r="P8">
-        <v>0.1097291692836794</v>
+        <v>0.002054002611219981</v>
       </c>
       <c r="Q8">
-        <v>0.6450454930730001</v>
+        <v>0.01416999034266667</v>
       </c>
       <c r="R8">
-        <v>3.870272958438</v>
+        <v>0.085019942056</v>
       </c>
       <c r="S8">
-        <v>0.0622144019429376</v>
+        <v>0.001088679709140316</v>
       </c>
       <c r="T8">
-        <v>0.08233773793528774</v>
+        <v>0.001444922081330168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.295669</v>
+        <v>1.7671255</v>
       </c>
       <c r="H9">
-        <v>4.591338</v>
+        <v>3.534251</v>
       </c>
       <c r="I9">
-        <v>0.8184772203415212</v>
+        <v>0.7806272272009463</v>
       </c>
       <c r="J9">
-        <v>0.7503723802230066</v>
+        <v>0.7034665260098926</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.008018666666666667</v>
+        <v>0.003383</v>
       </c>
       <c r="N9">
-        <v>0.024056</v>
+        <v>0.010149</v>
       </c>
       <c r="O9">
-        <v>0.002169229085055314</v>
+        <v>0.0005883777907182116</v>
       </c>
       <c r="P9">
-        <v>0.003131433376659132</v>
+        <v>0.000866564370688044</v>
       </c>
       <c r="Q9">
-        <v>0.018408204488</v>
+        <v>0.0059781855665</v>
       </c>
       <c r="R9">
-        <v>0.110449226928</v>
+        <v>0.035869113399</v>
       </c>
       <c r="S9">
-        <v>0.001775464591820054</v>
+        <v>0.0004593037233149762</v>
       </c>
       <c r="T9">
-        <v>0.00234974111635348</v>
+        <v>0.0006095990274118671</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.295669</v>
+        <v>1.7671255</v>
       </c>
       <c r="H10">
-        <v>4.591338</v>
+        <v>3.534251</v>
       </c>
       <c r="I10">
-        <v>0.8184772203415212</v>
+        <v>0.7806272272009463</v>
       </c>
       <c r="J10">
-        <v>0.7503723802230066</v>
+        <v>0.7034665260098926</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1054,400 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.407549</v>
+        <v>5.537354499999999</v>
       </c>
       <c r="N10">
-        <v>6.815098</v>
+        <v>11.074709</v>
       </c>
       <c r="O10">
-        <v>0.9218183903663721</v>
+        <v>0.9630672205538121</v>
       </c>
       <c r="P10">
-        <v>0.8871393973396614</v>
+        <v>0.9456053044771126</v>
       </c>
       <c r="Q10">
-        <v>7.822604605281001</v>
+        <v>9.785200339489748</v>
       </c>
       <c r="R10">
-        <v>31.290418421124</v>
+        <v>39.14080135795899</v>
       </c>
       <c r="S10">
-        <v>0.7544873538067636</v>
+        <v>0.7517964939890446</v>
       </c>
       <c r="T10">
-        <v>0.6656849011713653</v>
+        <v>0.665201678517041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.7671255</v>
+      </c>
+      <c r="H11">
+        <v>3.534251</v>
+      </c>
+      <c r="I11">
+        <v>0.7806272272009463</v>
+      </c>
+      <c r="J11">
+        <v>0.7034665260098926</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01709066666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.051272</v>
+      </c>
+      <c r="O11">
+        <v>0.002972441234181116</v>
+      </c>
+      <c r="P11">
+        <v>0.004377819333325193</v>
+      </c>
+      <c r="Q11">
+        <v>0.03020135287866666</v>
+      </c>
+      <c r="R11">
+        <v>0.181208117272</v>
+      </c>
+      <c r="S11">
+        <v>0.002320368558656563</v>
+      </c>
+      <c r="T11">
+        <v>0.003079649357913217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2318703333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.695611</v>
+      </c>
+      <c r="I12">
+        <v>0.1024286590738231</v>
+      </c>
+      <c r="J12">
+        <v>0.1384562255550801</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1838603333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.551581</v>
+      </c>
+      <c r="O12">
+        <v>0.03197733867200136</v>
+      </c>
+      <c r="P12">
+        <v>0.04709630920765415</v>
+      </c>
+      <c r="Q12">
+        <v>0.04263175677677777</v>
+      </c>
+      <c r="R12">
+        <v>0.383685810991</v>
+      </c>
+      <c r="S12">
+        <v>0.003275395920922606</v>
+      </c>
+      <c r="T12">
+        <v>0.006520777210466757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2318703333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.695611</v>
+      </c>
+      <c r="I13">
+        <v>0.1024286590738231</v>
+      </c>
+      <c r="J13">
+        <v>0.1384562255550801</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.008018666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.024056</v>
+      </c>
+      <c r="O13">
+        <v>0.001394621749287348</v>
+      </c>
+      <c r="P13">
+        <v>0.002054002611219981</v>
+      </c>
+      <c r="Q13">
+        <v>0.001859290912888889</v>
+      </c>
+      <c r="R13">
+        <v>0.016733618216</v>
+      </c>
+      <c r="S13">
+        <v>0.0001428492356946926</v>
+      </c>
+      <c r="T13">
+        <v>0.0002843894488297971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2318703333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.695611</v>
+      </c>
+      <c r="I14">
+        <v>0.1024286590738231</v>
+      </c>
+      <c r="J14">
+        <v>0.1384562255550801</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.003383</v>
+      </c>
+      <c r="N14">
+        <v>0.010149</v>
+      </c>
+      <c r="O14">
+        <v>0.0005883777907182116</v>
+      </c>
+      <c r="P14">
+        <v>0.000866564370688044</v>
+      </c>
+      <c r="Q14">
+        <v>0.0007844173376666667</v>
+      </c>
+      <c r="R14">
+        <v>0.007059756039</v>
+      </c>
+      <c r="S14">
+        <v>6.026674813208492E-05</v>
+      </c>
+      <c r="T14">
+        <v>0.0001199812319659798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2318703333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.695611</v>
+      </c>
+      <c r="I15">
+        <v>0.1024286590738231</v>
+      </c>
+      <c r="J15">
+        <v>0.1384562255550801</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.537354499999999</v>
+      </c>
+      <c r="N15">
+        <v>11.074709</v>
+      </c>
+      <c r="O15">
+        <v>0.9630672205538121</v>
+      </c>
+      <c r="P15">
+        <v>0.9456053044771126</v>
+      </c>
+      <c r="Q15">
+        <v>1.283948233699833</v>
+      </c>
+      <c r="R15">
+        <v>7.703689402198999</v>
+      </c>
+      <c r="S15">
+        <v>0.09864568399928081</v>
+      </c>
+      <c r="T15">
+        <v>0.1309249413227633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2318703333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.695611</v>
+      </c>
+      <c r="I16">
+        <v>0.1024286590738231</v>
+      </c>
+      <c r="J16">
+        <v>0.1384562255550801</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01709066666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.051272</v>
+      </c>
+      <c r="O16">
+        <v>0.002972441234181116</v>
+      </c>
+      <c r="P16">
+        <v>0.004377819333325193</v>
+      </c>
+      <c r="Q16">
+        <v>0.003962818576888889</v>
+      </c>
+      <c r="R16">
+        <v>0.035665367192</v>
+      </c>
+      <c r="S16">
+        <v>0.0003044631697929114</v>
+      </c>
+      <c r="T16">
+        <v>0.0006061363410542632</v>
       </c>
     </row>
   </sheetData>
